--- a/Normal/Sword Art Online Hollow Realization/SAOrigin.xlsx
+++ b/Normal/Sword Art Online Hollow Realization/SAOrigin.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13667\Documents\GitHub\ZhenhaoLu.github.io\Normal\Sword Art Online Hollow Realization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GameSiteZL\ZhenhaoLu.github.io\Normal\Sword Art Online Hollow Realization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D482B7-0A5E-48FF-BB15-BC955BEB9DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D855F-165C-4FB6-9739-BFF2A9129972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="武器" sheetId="1" r:id="rId1"/>
-    <sheet name="观前须知" sheetId="7" r:id="rId2"/>
+    <sheet name="观前须知" sheetId="7" r:id="rId1"/>
+    <sheet name="武器" sheetId="8" r:id="rId2"/>
     <sheet name="宝石" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -913,22 +913,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邪神：天堂回旋 SP+86，STR-0，DEX+57，背后CRT上升+30%，以HP量攻击力UP+15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南蓝：策略戒指：DEX+4，AGI+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪神：业魔·罗刹刀 STR+57，VIT+54，AGI-0，背后CRT上升+30%，HP回复量+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伪典 无锋囚犯 SP+93，DEX+62，AGI+74，背后CRT上升+20%，剑技DMG调整UP+10%，重新施展时间-12%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪神：黄泉王 HP+25000，VIT+80，AGI+59，剑技DMG调整UP+25%，HP回复量UP+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,10 +945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邪神：熔岩联盟 HP+8500，VIT+50，AGI-0，背后CRT上升+30%，损伤倍率调整+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪神：龙枪蛇神之王 STR+56，VIT-0，DEX+58，SP治疗+8，CRT+15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,13 +993,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邪神：阿修罗刀 STR+54，VIT-0，AGI+53，以HP量攻击力UP+15%，移动速度UP+15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪神：伪典 错误短剑 HP+8100，STR+63，DEX+90，以HP量攻击力UP+10%，HP治疗+20，以仇恨量提升攻击力+5%</t>
-  </si>
-  <si>
     <t>意识混淆锤 SP+146，DEX+80，AGI+50，剑技DMG调整UP+25%，以HP量攻击力UP+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,18 +1005,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邪神：月刀阿提密斯 STR-0，DEX+55，AGI+54，背后CRT上升+30%，以仇恨量提升攻击力+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：火山之剑 STR+16，DEX+16，攻击力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邪神：混沌破坏者 SP-0，DEX+53，AGI+53，移动速度UP+15%，冲刺攻击力+80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪神：厄运抹灭者 STR+54，VIT+54，AGI-0，攻击力+15%，以仇恨量提升攻击力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,18 +1049,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邪神：圣伤之剑 STR+34，DEX+43，AGI-0，SP治疗+8，CRT时攻击力+30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪神：大屠杀之剑 SP+200，STR+85，DEX+70，攻击力+20%，CRT+15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伪典·英灵战士记忆 STR+73，VIT+69，DEX+57，攻击速度UP+6%，背后CRT上升+30%，CRT时攻击力+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伪典·复仇女神凯旋 SP+91，STR+76，AGI+63，CRT+10%，以SP量攻击力UP+10%，SP治疗+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1244,10 +1205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伪典·白蛇凭姬 STR+76，VIT+64，DEX+73，以SP量攻击力UP+10%，冲刺攻击力+50%，重新施展时间+15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪神：战神之怒 SP+200，STR+69，DEX+90，AGI+57，以HP量攻击力UP+20%，攻击力+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1476,14 +1433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：回复戒指 HP+1300，DEX+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三绿：皮革圆盾 损伤减轻率+40，攻击力+41，SP+4，AGI-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：贪婪军刀 HP+1400，AGI+14，CRT时攻击力+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1504,14 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月光石坠饰 HP+2200，SP+17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南蓝：爆发戒指 SP+12，DEX+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三绿：猎犬杀手 STR+14，DEX+14，移动速度UP+3%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1520,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西蓝：活动腰带 VIT+6，AGI+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;-&gt;任务冲突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1536,10 +1473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：心灵安卡 SP+19，AGI+5，暴击耐性+10，麻痹耐性+10，出血耐性+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纪元跑者 DEX+19，AGI+17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1547,10 +1480,6 @@
     <t>暮光戒指 DEX+11，AGI+11</t>
   </si>
   <si>
-    <t>三绿：原质克星 HP+300，SP+18，攻击力+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>章节boss：燃烧胸甲 STR+44，VIT-0，AGI+44，以仇恨量提升攻击力+20%，损伤倍率调整+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,10 +1516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三绿：绮罗圆盾 损伤减轻率+45，攻击+57，STR+9，AGI-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>章节boss：马靴 STR+38，VIT+38，AGI-0，以仇恨量提升攻击力UP+20%，MaxSP+90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1603,9 +1528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西蓝：夜曲戒指 SP+22，DEX+8</t>
-  </si>
-  <si>
     <t>三绿：咆哮封弊者 DEX+20，AGI+20，MaxHP+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1618,10 +1540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三绿：隐岐岛 DEX+6，AGI+19，攻击力+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：收缩利剪 DEX+27，AGI+4，CRT时攻击力+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1718,10 +1636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三绿：千次攻击 HP+1100，STR+21，冲刺攻击力+30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：碑文戒指 DEX+14，AGI+14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1818,14 +1732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三绿：邪恶加农 SP+45，STR+13，CRT+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三绿：真实止步 HP+1500，VIT+5，攻击力+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器不包含基础攻击力，头，身体，脚防具不包括防御力，包括附加词条/属性，毕竟是固定值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1850,10 +1756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中蓝：守智头盔 HP+3500，VIT+7，眩晕耐性+1，倒地耐性+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：反弹之盾 损伤减轻率+40，VIT+43，DEX+10，眩晕耐性+5，倒地耐性+5，暴击耐性+5，CRT耐性+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1862,10 +1764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东北蓝：静气护符 防御力+1，AP+43，AGI+17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三绿：严厉制裁 STR+41，DEX+36，攻击力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1874,10 +1772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三绿：苦难永代丸 STR+26，DEX+36，以HP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苍龙装甲 STR+55，VIT+55，DEX+30，防御力+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1986,10 +1880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二绿：破风短剑 SP+230，DEX+88，VIT+53，AGI+41，状态异常命中UP+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二绿：超群细剑 SP+210，VIT+60，DEX+61，AGI+63，状态异常命中UP+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2002,10 +1892,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二绿：古朴弯刀 HP+8000，SP+150，STR+70，DEX+56，AGI+66，攻击力+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二绿：惧怕之剑 HP+8000，SP+150，STR+97，DEX+90，AGI+91，CRT时攻击力-10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2074,10 +1960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>极乐仲裁者 HP+10000，SP+200，STR+121，DEX+70，AGI+150，Weak目标攻击力+30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南蓝：阿多尼斯的手环 防御力+3，STR+11，DEX+11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2102,10 +1984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东北蓝：气流腰带 攻击力+1，防御力+1，HP+500，VIT+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：灾源腕套 防御力+2，SP+9，STR+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2142,10 +2020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纪元守护 HP+1400，VIT+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：古典链坠 DEX+7，AGI+7，倒地耐性+5，麻痹耐性+10，出血耐性+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2478,10 +2352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北蓝：控制腕套 攻击力+2，防御力+2，STR+5，DEX+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：叶隐 SP+28，VIT+12，损伤倍率调整UP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2506,30 +2376,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：恩典掷枪 STR+5，VIT+16，CRT时攻击力+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：回忆链坠 HP+1900，AGI+7，晕眩耐性+5，暴击耐性+5，中毒耐性+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：深邃硬壳 损伤减轻率+45，攻击力+58，STR+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：雏菊坠饰 HP+1800，DEX+7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西蓝：清醒手镯 攻击力+3，HP+1700，STR+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红：火山双手斧 HP+3000，STR+6，损伤倍率调整+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南蓝：雪花莲戒指 DEX+8，AGI+8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2542,18 +2396,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：贪婪军刀 SP+13，DEX+14，冲刺攻击力+30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：光辉鉴定者 HP+3500，VIT+22，冲刺攻击力+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：突击手镯 攻击力+2，STR+8，DEX-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西蓝：战士腰带 HP+2000，VIT+8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2566,10 +2412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：妄想战斧(溅血战斧) STR+8，DEX+8，移动速度UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：激昂安卡 STR+8，AGI+8，晕眩耐性+10，中毒耐性+5，出血耐性+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2622,14 +2464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：浮出云 HP+3100，VIT+30，CRT时攻击力+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蓝：力量臂镯 攻击力+2，防御力+4，STR+5，VIT+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北蓝：镇静 HP+3000，AGI+11，倒地耐性+10，暴击耐性+5，麻痹耐性+10，出血耐性+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2646,10 +2480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：掠夺者之剑 HP+1500，STR+24，移动速度UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西蓝：驱逐疼痛 SP+24，AGI+9，倒地耐性+15，暴击耐性+5，中毒耐性+10，麻痹耐性+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2662,10 +2492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中蓝：智慧手环 攻击力+2，SP+4，STR+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：白日梦安卡 SP+29，AGI+10，晕眩耐性+10，倒地耐性+5，暴击耐性+10，中毒耐性+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2686,14 +2512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：热霾腕套 攻击力+1，防御力+1，STR+9，AGI+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红：光辉斧枪 HP+2500，STR+17，攻击力+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西南蓝：狂喜戒指 VIT+10，DEX+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2702,18 +2520,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：燃烧长枪 STR+26，AGI+13，重新施展时间+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：大太刀·弧月 SP+48，STR+27，CRT+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：苍蓝腰带 防御力+1，VIT+7，AGI+11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：光辉安卡 SP+30，AGI+11，倒地耐性+10，暴击耐性+5，中毒耐性+10，出血耐性+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2722,10 +2532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：轻羽推动 STR+18，DEX+14，HP治疗+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：大师腰带 HP+3800，VIT+13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2738,14 +2544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：页岩圆盾 损伤减轻率+45，攻击力+88，AGI+13，STR-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中蓝：宝石手镯 STR+9，DEX+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：英勇细剑 VIT+32，AGI+6，攻击力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2774,10 +2572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：杀戮上位者 STR+29，AGI+33，HP治疗+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：引领硬壳 VIT+22，AGI-0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2830,14 +2624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：监狱切削者 HP+5700，SP+21，重新施展时间+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红：宣泄细剑 STR+6，DEX+26，HP回复量UP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北蓝：土星腰带 VIT+14，AGI+14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,10 +2632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：狂热锤 HP+4800，STR+11，移动速度UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：流氓巨镰（破坏之斧）HP+7900，STR+44，CRT时攻击力+20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2874,10 +2656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：罪祸缓冲 STR+39，VIT+14，移动速度UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：摄理戒指 STR+16，DEX+16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2910,10 +2688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：疯狂重压（传说）STR+22，DEX+21，重新施展时间+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疯狂重压</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2962,10 +2736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北蓝：开拓命运者 HP+4200，STR+16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：狂风短剑 SP+69，AGI+41，冲刺攻击力+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2974,10 +2744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东南红：穿心之枪 DEX+40，AGI+23，CRT时攻击力+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三绿：色欲短剑 SP+58，VIT+45，背后CRT上升+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2986,22 +2752,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东北蓝：魅惑颈链 HP+2300，DEX+11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北蓝：漆黑护符 SP+25，AGI+18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西蓝：美姿腰带 VIT+21，AGI+21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东蓝：无畏头盔 SP+32，VIT+16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：贯穿之剑 STR+45，DEX+45，CRT+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3018,10 +2772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：零剑 SP+39，STR+24，SP治疗+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四绿：九剑 STR+27，AGI+48，防御力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3042,18 +2792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中蓝：幸运头盔 VIT+17，DEX+19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蓝：冷静头盔 SP+43，VIT+13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红：断念之剑 STR+29，DEX+20，CRT时攻击力+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忏悔之锤 HP+5000，VIT+47，AGI-0，CRT+15%，SP治疗+8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3070,10 +2808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三绿：鲛鲨之刃 STR+28，DEX+38，CRT+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：除恶弯刀 DEX+38，AGI+32，以HP量攻击力UP+35%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3082,18 +2816,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西北蓝：战斗大师 HP+3100，STR+16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：污秽之棺 VIT+20，AGI+20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：飞花落叶 STR+17，AGI+45，SP治疗+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南蓝：原力苍穹 VIT+24，AGI+25，防御时消耗SP减少-5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3154,10 +2880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中蓝：宗效防卫 SP+22，VIT+27，攻击速度UP+4%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南红：悠久幻象 SP+70，VIT+40，AGI+50，HP回复量UP+30%，SP治疗+8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3446,10 +3168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欲望深渊 STR+51，VIT+39，CRT+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蒸汽抗拒 STR+64，VIT+108，AGI+57，防御力+10%，以HP量攻击力UP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3586,14 +3304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东蓝：最后审判 STR+46，DEX+50，剑技DMG调整UP+25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北蓝：随机执行者 VIT+55，AGI+44，CRT+20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：英灵殿屏蔽 HP+6800，STR+36，VIT+74，防御力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3642,10 +3352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东蓝：永久机构 STR+21，DEX+33，SP治疗+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迅捷堕天使 HP+9000，VIT+61，AGI+107，以SP量攻击力UP+10%，HP回复量UP+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3654,10 +3360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西蓝：细微波动 DEX+71，AGI+36，格挡时间+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：狡诈意念 STR+64，DEX+65，CRT+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3666,10 +3368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绳织之疾 STR+80，DEX+91，AGI+102，移动速度UP+5%，HP治疗+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伪神悖论 STR+121，DEX+99，AGI+68，背后CRT上升+10%，攻击力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3678,10 +3376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红：骑兵之斧 STR+55，DEX+81，AGI+79，攻击力+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幻象起义 STR+116，DEX+88，AGI+98，防御力+10%，格挡时间+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3702,18 +3396,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>悠久徐风 VIT+53，AGI+53，MaxHP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北蓝：中产戒条 DEX+57，AGI+79，EXP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>适能秘使 VIT+116，DEX+90，AGI+92，以HP量攻击力UP+5%，以SP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：夜迷引领 VIT+88，DEX+110，AGI+114，以SP量攻击力UP+10%，攻击力+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3762,14 +3448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：死神互惠 STR+84，DEX+125，AGI+73，CRT时攻击力+20%，以HP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多计探秘者 STR+91，DEX+112，AGI+84，攻击速度UP+4%，以SP量攻击力UP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排除恐惧 VIT+129，DEX+100，AGI+74，以SP量攻击力UP+10%，以HP量攻击力UP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3778,10 +3456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中蓝：意外之辱 VIT+63，AGI+66，背后CRT上升+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巨人鼓舞 VIT+96，DEX+112，AGI+69，攻击力+10%，以HP量攻击力UP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3810,10 +3484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：徐缓噩梦 STR+86，DEX+72，AGI+130，背后CRT上升+10%，以SP量攻击力UP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红：猎头皮者 VIT+100，DEX+57，AGI+61，防御力+15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3822,10 +3492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北蓝：幽魂之痕 STR+101，DEX+90，AGI+118，SP治疗+3，剑技DMG调整UP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中蓝：荒谬蚁地狱 VIT+130，DEX+77，AGI+95，CRT时攻击力+20%，以HP量攻击力UP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4146,10 +3812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北红：防御之墙 HP+5300，VIT+62，防御力+15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银：危难阻隔 STR+60，VIT+58，DEX+43，损伤倍率调整+20%，剑技DMG调整UP+20%，以HP量攻击力UP+15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4222,10 +3884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裂颅锤 HP+5300，SP+19，VIT+43，以HP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：拂晓戒指 STR+30，DEX+30，CRT+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4282,10 +3940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北蓝：致胜颈链 HP+4500，STR+29，以HP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银：野兽化身 SP+199，STR+39，DEX+27，背后CRT上升+20%，CRT时攻击力+30%，SP治疗+8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4326,10 +3980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北蓝：勇气面罩 SP+60，VIT+29，攻击力+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：轻量戒指 STR+30，DEX+30，损伤耐性UP+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4354,14 +4004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东蓝：紧身护腰 HP+4700，VIT+28，以HP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蓝：掌握手环 STR+29，VIT+30，剑技DMG调整UP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银：钢铁之棺 SP+64，VIT+52，DEX+21，状态异常命中UP+20%，以HP量攻击力UP+15%，HP回复量UP+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4386,14 +4028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南红：突击终结者 VIT+46，AGI+50，以SP量攻击力UP+5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北蓝：守护要害 HP+5200，VIT+30，MaxHP+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东蓝：红炎戒指 STR+63，DEX+24，剑技DMG调整UP+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4406,22 +4040,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南蓝：冷静头盔 SP+45，VIT+60，SP治疗+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人之椿 SP+121，STR+36，VIT+8，重新施展时间-8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛苦之锋 SP+44，STR+81，VIT+8，移动速度UP+15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃葵司细剑 SP+111，STR+41，VIT+12，攻击速度UP+8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银：攻击虚化 STR+49，DEX+55，CRT时攻击力+30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4438,10 +4056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胜利者复活 STR+16，DEX+78，AGI+54，HP治疗+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西蓝：慈悲之影腕套 STR+23，AGI+25，剑技DMG调整UP+10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4470,10 +4084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北蓝：神秘乌托邦 SP+86，VIT+29，背后CRT上升+10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银：风险程序 （STR+29），VIT+58，DEX+40，JUST踏步SP回复+30，CRT时攻击力+100，以HP量攻击力UP+5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4523,6 +4133,397 @@
   </si>
   <si>
     <t>在前期初始值确实会影响武器性能，但是到了后期神器是可以刷的。追求强度的玩家可以无视这些数据，有收集癖的玩家可以看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极乐仲裁者 HP+10000，SP+200，STR+130，DEX+70，AGI+150，Weak目标攻击力+30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：幽魂之痕 STR+102，DEX+90，AGI+118，SP治疗+3，剑技DMG调整UP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：徐缓噩梦 STR+86，DEX+74，AGI+130，背后CRT上升+10%，以SP量攻击力UP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中蓝：意外之辱 VIT+68，AGI+68，背后CRT上升+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多计探秘者 STR+91，DEX+112，AGI+87，攻击速度UP+4%，以SP量攻击力UP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：死神互惠 STR+84，DEX+125，AGI+76，CRT时攻击力+20%，以HP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠久徐风 VIT+54，AGI+54，MaxHP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适能秘使 VIT+116，DEX+90，AGI+94，以HP量攻击力UP+5%，以SP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二绿：古朴弯刀 HP+8000，SP+150，STR+72，DEX+59，AGI+67，攻击力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：骑兵之斧 STR+64，DEX+81，AGI+79，攻击力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绳织之疾 STR+80，DEX+96，AGI+102，移动速度UP+5%，HP治疗+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：细微波动 DEX+71，AGI+37，格挡时间+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东蓝：永久机构 STR+38，DEX+38，SP治疗+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东蓝：最后审判 STR+50，DEX+50，剑技DMG调整UP+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：随机执行者 VIT+55，AGI+46，CRT+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二绿：破风短剑 SP+230，DEX+88，VIT+53，AGI+48，状态异常命中UP+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望深渊 STR+51，VIT+46，CRT+5%</t>
+  </si>
+  <si>
+    <t>伪典·白蛇凭姬 STR+76，VIT+65，DEX+73，以SP量攻击力UP+10%，冲刺攻击力+50%，重新施展时间+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪典·英灵战士记忆 STR+73，VIT+71，DEX+71，攻击速度UP+6%，背后CRT上升+30%，CRT时攻击力+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：伪典 错误短剑 HP+10000，STR+68，DEX+97，以HP量攻击力UP+10%，HP治疗+20，以仇恨量提升攻击力+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中蓝：综效防卫 SP+27，VIT+41，攻击速度UP+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪典 无锋囚犯 SP+93，DEX+80，AGI+80，背后CRT上升+20%，剑技DMG调整UP+10%，重新施展时间-12%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中蓝：守智头盔 HP+3500，VIT+17，眩晕耐性+1，倒地耐性+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北蓝：静气护符 防御力+1，SP+43，AGI+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：飞花落叶 STR+22，AGI+45，SP治疗+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北蓝：战斗大师 HP+3500，STR+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：鲛鲨之刃 STR+33，DEX+38，CRT+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：圣伤之剑 STR+38，DEX+44，AGI-0，SP治疗+8，CRT时攻击力+30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：断念之剑 STR+35，DEX+35，CRT时攻击力+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：冷静头盔 SP+46，VIT+21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中蓝：幸运头盔 VIT+20，DEX+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：零剑 SP+42，STR+42，SP治疗+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：苦难永代丸 STR+28，DEX+36，以HP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东蓝：无畏头盔 SP+32，VIT+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北蓝：漆黑护符 SP+45，AGI+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北蓝：魅惑颈链 HP+4500，DEX+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南红：穿心之枪 DEX+40，AGI+28，CRT时攻击力+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：开拓命运者 HP+4200，STR+17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：冷静头盔 SP+50，VIT+60，SP治疗+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北红：防御之墙 HP+5500，VIT+62，防御力+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：真实止步 HP+3800，VIT+23，攻击力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南红：突击终结者 VIT+55，AGI+55，以SP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：守护要害 HP+6000，VIT+30，MaxHP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：疯狂重压（传说）STR+29，DEX+29，重新施展时间+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：邪恶加农 SP+49，STR+15，CRT+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：罪祸缓冲 STR+39，VIT+29，移动速度UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：狂热锤 HP+4800，STR+22，移动速度UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：宣泄细剑 STR+12，DEX+27，HP回复量UP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东蓝：紧身护腰 HP+5000，VIT+30，以HP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：掌握手环 STR+30，VIT+30，剑技DMG调整UP+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：监狱切削者 HP+5700，SP+31，重新施展时间+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：月刀阿提密斯 STR-0，DEX+57，AGI+57，背后CRT上升+30%，以仇恨量提升攻击力+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：勇气面罩 SP+60，VIT+30，攻击力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：千次攻击 HP+1900，STR+21，冲刺攻击力+30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：杀戮上位者 STR+33，AGI+33，HP治疗+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中蓝：宝石手镯 STR+12，DEX+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：致胜颈链 HP+5000，STR+30，以HP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：阿修罗刀 STR+54，VIT-0，AGI+54，以HP量攻击力UP+15%，移动速度UP+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：页岩圆盾 损伤减轻率+45，攻击力+88，AGI+21，STR-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：轻羽推动 STR+30，DEX+15，HP治疗+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：苍蓝腰带 防御力+1，VIT+8，AGI+11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：燃烧长枪 STR+26，AGI+14，重新施展时间+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：光辉斧枪 HP+2500，STR+22，攻击力+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：热霾腕套 STR+9，AGI+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中蓝：智慧手环 SP+26，STR+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：神秘乌托邦 SP+90，VIT+30，背后CRT上升+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：掠夺者之剑 HP+2900，STR+28，移动速度UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：力量臂镯 STR+10，VIT+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：浮出云 HP+3100，VIT+31，CRT时攻击力+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：隐岐岛 DEX+9，AGI+19，攻击力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：夜曲戒指 SP+22，DEX+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：绮罗圆盾 STR+14，AGI-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：熔岩联盟 HP+9100，VIT+56，AGI-0，背后CRT上升+30%，损伤倍率调整+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：妄想战斧(溅血战斧) STR+15，DEX+15，移动速度UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：突击手镯 STR+8，DEX+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：贪婪军刀 SP+14，DEX+14，冲刺攻击力+30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：心灵安卡 SP+19，AGI+7，暴击耐性+10，麻痹耐性+10，出血耐性+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：原质克星 HP+1400，SP+19，攻击力+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：火山双手斧 HP+3000，STR+11，损伤倍率调整+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：清醒手镯 攻击力+3，HP+1800，STR+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝：活动腰带 VIT+6，AGI+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：深邃硬壳 损伤减轻率+45，攻击力+58，STR+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：爆发戒指 SP+13，DEX+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：恩典掷枪 STR+9，VIT+16，CRT时攻击力+20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利者复活 STR+19，DEX+78，AGI+54，HP治疗+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北蓝：控制腕套 STR+6，DEX+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：策略戒指：DEX+6，AGI+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三绿：皮革圆盾 SP+14，AGI-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蓝：回复戒指 HP+1500，DEX+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光石坠饰 HP+2300，SP+19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪元守护 HP+1500，VIT+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：混沌破坏者 SP-0，DEX+56，AGI+56，移动速度UP+15%，冲刺攻击力+80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂颅锤 HP+5300，SP+66，VIT+43，以HP量攻击力UP+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃葵司细剑 SP+120，STR+42，VIT+13，攻击速度UP+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人之椿 SP+121，STR+42，VIT+15，重新施展时间-8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神：天堂回旋 SP+91，STR-0，DEX+57，背后CRT上升+30%，以HP量攻击力UP+15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北蓝：气流腰带 攻击力+1，防御力+1，HP+600，VIT+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦之锋 SP+80，STR+81，VIT+8，移动速度UP+15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4561,7 +4562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4571,12 +4572,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4593,7 +4588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4601,7 +4596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4614,14 +4608,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4902,12 +4893,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA582F9-CB3B-4898-93EC-932384AAC95D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BEA7A5-D98D-4D90-9933-99A60C93DE08}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C183" sqref="C183"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4917,7 +4945,7 @@
     <col min="6" max="6" width="103.6640625" customWidth="1"/>
     <col min="7" max="7" width="107.77734375" customWidth="1"/>
     <col min="8" max="8" width="100.77734375" customWidth="1"/>
-    <col min="9" max="9" width="100.77734375" style="8"/>
+    <col min="9" max="9" width="100.77734375" style="7"/>
     <col min="13" max="13" width="73.33203125" customWidth="1"/>
     <col min="14" max="14" width="20.109375" customWidth="1"/>
     <col min="15" max="15" width="14.5546875" customWidth="1"/>
@@ -4937,19 +4965,19 @@
         <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1009</v>
+        <v>925</v>
       </c>
       <c r="G1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>337</v>
+        <v>1029</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="M1" t="s">
         <v>216</v>
@@ -4963,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>227</v>
@@ -4974,9 +5002,9 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="M2" s="5" t="s">
-        <v>1110</v>
+      <c r="H2" s="10"/>
+      <c r="M2" s="1" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4984,35 +5012,35 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9" t="s">
-        <v>1007</v>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
+        <v>923</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1008</v>
+        <v>924</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1023</v>
+        <v>939</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -5029,16 +5057,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1128</v>
+        <v>1030</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1024</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5046,19 +5074,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1129</v>
+        <v>1031</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1025</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -5068,38 +5096,38 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>532</v>
+      <c r="C6" s="1" t="s">
+        <v>1136</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>234</v>
+        <v>1135</v>
       </c>
       <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>1011</v>
+      <c r="H6" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>927</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -5107,35 +5135,35 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1130</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9" t="s">
-        <v>1018</v>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
+        <v>934</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1017</v>
+        <v>933</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1120</v>
+        <v>1023</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -5149,35 +5177,35 @@
         <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
-        <v>1020</v>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8" t="s">
+        <v>936</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1021</v>
+        <v>937</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1022</v>
+        <v>938</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>1109</v>
+        <v>942</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1134</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -5188,31 +5216,31 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>1027</v>
+        <v>383</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>943</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1047</v>
+        <v>962</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1050</v>
+        <v>965</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>1111</v>
+        <v>964</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1133</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -5223,25 +5251,25 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>1062</v>
+      <c r="H10" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5249,24 +5277,24 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>265</v>
+        <v>355</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1131</v>
       </c>
       <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5279,15 +5307,15 @@
         <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="10"/>
       <c r="M12" t="s">
         <v>217</v>
       </c>
@@ -5297,22 +5325,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1115</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5320,42 +5348,42 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>382</v>
+      <c r="B15" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1129</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1015</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5366,37 +5394,37 @@
         <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>1052</v>
+      <c r="H16" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>967</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1051</v>
+        <v>966</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1054</v>
+        <v>969</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1048</v>
+        <v>963</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5404,47 +5432,47 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="9"/>
       <c r="M17" s="1" t="s">
-        <v>1071</v>
+        <v>985</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>375</v>
+        <v>1033</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1128</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1127</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="9"/>
       <c r="M18" s="1" t="s">
-        <v>1084</v>
+        <v>997</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5452,37 +5480,37 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="G19" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>1030</v>
+      <c r="H19" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>946</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1032</v>
+        <v>948</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1055</v>
+        <v>970</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -5492,27 +5520,27 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>626</v>
+      <c r="B20" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1125</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="M20" s="5" t="s">
-        <v>1116</v>
+      <c r="H20" s="10"/>
+      <c r="M20" s="1" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -5520,38 +5548,38 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9" t="s">
-        <v>1056</v>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>971</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1057</v>
+        <v>972</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1058</v>
+        <v>973</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1059</v>
+        <v>974</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1114</v>
+        <v>1018</v>
       </c>
       <c r="N21">
         <v>6</v>
@@ -5562,34 +5590,34 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>633</v>
+        <v>599</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1123</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G22" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>1060</v>
+      <c r="H22" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>975</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1061</v>
+        <v>976</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1113</v>
+        <v>1017</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1112</v>
+        <v>1016</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -5600,32 +5628,32 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>635</v>
+        <v>600</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1121</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9" t="s">
-        <v>1063</v>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="s">
+        <v>977</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1064</v>
+        <v>978</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1065</v>
+        <v>979</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1033</v>
+        <v>949</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -5635,47 +5663,47 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>386</v>
+      <c r="B24" s="1" t="s">
+        <v>1120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>637</v>
+      <c r="B25" s="1" t="s">
+        <v>1119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>393</v>
+        <v>602</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1117</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>394</v>
+      <c r="H25" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="M25" t="s">
         <v>218</v>
@@ -5685,48 +5713,48 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>390</v>
+      <c r="B26" s="1" t="s">
+        <v>1116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>642</v>
+        <v>604</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1115</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="G26" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="10"/>
       <c r="M26" s="1" t="s">
-        <v>1100</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>644</v>
+      <c r="B27" s="1" t="s">
+        <v>1114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>645</v>
+        <v>606</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
       <c r="M27" s="1" t="s">
-        <v>1092</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5734,22 +5762,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>647</v>
+        <v>608</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1069</v>
+        <v>983</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5757,22 +5785,22 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>648</v>
+        <v>609</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1029</v>
+        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5780,19 +5808,19 @@
         <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1079</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5800,28 +5828,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>245</v>
+        <v>387</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1112</v>
       </c>
       <c r="G31" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>404</v>
+      <c r="H31" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1080</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5829,35 +5857,35 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G32" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9" t="s">
-        <v>1068</v>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8" t="s">
+        <v>982</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1034</v>
+        <v>950</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1067</v>
+        <v>981</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1066</v>
+        <v>980</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1098</v>
+        <v>1008</v>
       </c>
       <c r="N32" t="s">
         <v>64</v>
@@ -5868,38 +5896,38 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>403</v>
+        <v>617</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9" t="s">
-        <v>1121</v>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8" t="s">
+        <v>1024</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1117</v>
+        <v>1020</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1119</v>
+        <v>1022</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1118</v>
+        <v>1021</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>1099</v>
+        <v>1009</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -5912,23 +5940,23 @@
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>407</v>
+      <c r="C34" s="1" t="s">
+        <v>1110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>411</v>
+        <v>618</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1109</v>
       </c>
       <c r="G34" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>409</v>
+      <c r="H34" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1126</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -5936,61 +5964,61 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>662</v>
+      <c r="D35" s="1" t="s">
+        <v>1108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="G35" t="s">
         <v>109</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>663</v>
+      <c r="B37" s="1" t="s">
+        <v>1107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -5998,19 +6026,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>668</v>
+        <v>625</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -6018,28 +6046,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>669</v>
+        <v>626</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>671</v>
+        <v>628</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>670</v>
+        <v>627</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>1124</v>
+        <v>401</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1105</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1125</v>
+        <v>1027</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="N39">
         <v>6</v>
@@ -6049,29 +6077,29 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>672</v>
+      <c r="B40" s="1" t="s">
+        <v>1104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>1076</v>
+        <v>392</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>990</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1075</v>
+        <v>989</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1074</v>
+        <v>988</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>1122</v>
+        <v>1025</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -6082,55 +6110,55 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G41" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>414</v>
+      <c r="H41" s="10" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>678</v>
+      <c r="B42" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>679</v>
+        <v>633</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1102</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="G42" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9" t="s">
-        <v>1036</v>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8" t="s">
+        <v>952</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1072</v>
+        <v>986</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>1037</v>
+        <v>953</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1073</v>
+        <v>987</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -6141,40 +6169,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>680</v>
+        <v>634</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>682</v>
+        <v>635</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="G43" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>684</v>
+        <v>637</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -6182,19 +6210,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>686</v>
+        <v>638</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>687</v>
+      <c r="D45" s="1" t="s">
+        <v>1099</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -6202,16 +6230,16 @@
         <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -6222,19 +6250,19 @@
         <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>430</v>
+      <c r="H47" s="10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -6242,35 +6270,35 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>691</v>
+      <c r="D48" s="1" t="s">
+        <v>1098</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>258</v>
+        <v>412</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1097</v>
       </c>
       <c r="G48" t="s">
         <v>118</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>1077</v>
+      <c r="H48" s="10"/>
+      <c r="I48" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1096</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1078</v>
+        <v>991</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>1039</v>
+        <v>955</v>
       </c>
       <c r="N48">
         <v>6</v>
@@ -6283,41 +6311,41 @@
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>692</v>
+      <c r="C49" s="1" t="s">
+        <v>1095</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="G49" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="11"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
         <v>121</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>434</v>
+      <c r="H50" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -6328,94 +6356,94 @@
         <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>695</v>
+        <v>644</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="G51" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>697</v>
+        <v>646</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="G52" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="G53" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>448</v>
+      <c r="H53" s="10" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1081</v>
+        <v>994</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>702</v>
+        <v>650</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
         <v>124</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="9" t="s">
-        <v>1041</v>
+      <c r="H54" s="10"/>
+      <c r="I54" s="8" t="s">
+        <v>957</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1040</v>
+        <v>956</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1082</v>
+        <v>995</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>1083</v>
+        <v>996</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -6429,29 +6457,29 @@
         <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>705</v>
+        <v>653</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="9" t="s">
-        <v>1086</v>
+      <c r="H55" s="10"/>
+      <c r="I55" s="8" t="s">
+        <v>999</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1085</v>
+        <v>998</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>1087</v>
+        <v>1000</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>1123</v>
+        <v>1026</v>
       </c>
       <c r="N55">
         <v>3</v>
@@ -6467,26 +6495,26 @@
       <c r="C56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>436</v>
+      <c r="D56" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1093</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>1088</v>
+        <v>243</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>1092</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1089</v>
+        <v>1001</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1090</v>
+        <v>1002</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>1091</v>
+        <v>1003</v>
       </c>
       <c r="N56">
         <v>6</v>
@@ -6500,16 +6528,16 @@
         <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>708</v>
+        <v>656</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -6517,16 +6545,16 @@
         <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>709</v>
+        <v>657</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="G58" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>447</v>
+      <c r="H58" s="10" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -6534,59 +6562,59 @@
         <v>128</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>710</v>
+        <v>658</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>263</v>
+        <v>420</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1091</v>
       </c>
       <c r="G59" t="s">
         <v>133</v>
       </c>
-      <c r="H59" s="11"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>714</v>
+        <v>661</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1090</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G60" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="10" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>1095</v>
+      <c r="H60" s="10"/>
+      <c r="I60" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1088</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>1094</v>
+        <v>1006</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1093</v>
+        <v>1005</v>
       </c>
       <c r="N60">
         <v>6</v>
@@ -6602,8 +6630,8 @@
       <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>715</v>
+      <c r="D61" s="1" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -6611,19 +6639,19 @@
         <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>716</v>
+        <v>662</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>718</v>
+        <v>663</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1086</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -6631,19 +6659,19 @@
         <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>721</v>
+        <v>666</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>720</v>
+        <v>665</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>719</v>
+        <v>664</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -6651,16 +6679,16 @@
         <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>723</v>
+        <v>668</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -6668,16 +6696,16 @@
         <v>134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -6685,25 +6713,25 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>724</v>
+        <v>669</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>725</v>
+        <v>670</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1085</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="G66" t="s">
         <v>154</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>528</v>
+      <c r="H66" s="10" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -6711,29 +6739,29 @@
         <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
         <v>160</v>
       </c>
-      <c r="H67" s="11"/>
+      <c r="H67" s="10"/>
       <c r="K67" s="1" t="s">
-        <v>1042</v>
+        <v>958</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>1097</v>
+        <v>1007</v>
       </c>
       <c r="N67">
         <v>6</v>
@@ -6747,29 +6775,29 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>730</v>
+        <v>674</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>461</v>
+        <v>675</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="G68" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="G69" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>458</v>
+      <c r="H69" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -6777,53 +6805,53 @@
         <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>732</v>
+        <v>676</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>734</v>
+        <v>677</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1083</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="G70" t="s">
         <v>155</v>
       </c>
-      <c r="H70" s="11"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>738</v>
+        <v>681</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>736</v>
+        <v>679</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>737</v>
+        <v>680</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="G71" t="s">
         <v>156</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>1103</v>
+      <c r="H71" s="10"/>
+      <c r="I71" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1081</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>1102</v>
+        <v>1012</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>1101</v>
+        <v>1011</v>
       </c>
       <c r="N71">
         <v>6</v>
@@ -6837,25 +6865,25 @@
         <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>739</v>
+        <v>682</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G72" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>457</v>
+      <c r="H72" s="10" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -6866,47 +6894,47 @@
         <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>462</v>
+        <v>684</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1080</v>
       </c>
       <c r="G73" t="s">
         <v>158</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="9" t="s">
-        <v>1045</v>
+      <c r="H73" s="10"/>
+      <c r="I73" s="8" t="s">
+        <v>960</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1105</v>
+        <v>1013</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1106</v>
+        <v>1014</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1046</v>
+        <v>961</v>
       </c>
       <c r="N73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="11"/>
-      <c r="I74" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>1108</v>
+      <c r="H74" s="10"/>
+      <c r="I74" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>1078</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>1107</v>
+        <v>1015</v>
       </c>
       <c r="N74">
         <v>6</v>
@@ -6917,24 +6945,24 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>1132</v>
+        <v>1034</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>745</v>
+        <v>688</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>743</v>
+        <v>686</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="G75" t="s">
         <v>159</v>
       </c>
-      <c r="H75" s="11"/>
+      <c r="H75" s="10"/>
       <c r="N75" t="s">
         <v>224</v>
       </c>
@@ -6944,16 +6972,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>747</v>
+        <v>689</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1077</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>748</v>
+        <v>690</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -6961,7 +6989,7 @@
         <v>191</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -6972,45 +7000,45 @@
         <v>115</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>750</v>
+        <v>691</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1076</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>751</v>
+        <v>692</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="F79" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="F80" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>754</v>
+      <c r="B81" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1074</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>752</v>
+        <v>693</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -7018,24 +7046,24 @@
         <v>192</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>756</v>
+      <c r="B83" s="1" t="s">
+        <v>1073</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>755</v>
+        <v>694</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>475</v>
+        <v>695</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -7043,7 +7071,7 @@
         <v>193</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -7051,19 +7079,19 @@
         <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>764</v>
+        <v>701</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>761</v>
+        <v>700</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1071</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>762</v>
+        <v>699</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -7071,31 +7099,31 @@
         <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>758</v>
+        <v>696</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>760</v>
+        <v>698</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="F87" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="F88" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -7103,19 +7131,19 @@
         <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>767</v>
+        <v>703</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1070</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>765</v>
+        <v>702</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -7123,31 +7151,31 @@
         <v>83</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>768</v>
+        <v>706</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1069</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>769</v>
+        <v>1068</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>276</v>
+        <v>705</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="F91" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="F92" s="1" t="s">
-        <v>770</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -7155,7 +7183,7 @@
         <v>194</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -7163,61 +7191,61 @@
         <v>84</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>773</v>
+        <v>707</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>774</v>
+        <v>708</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1066</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>777</v>
+      <c r="B95" s="1" t="s">
+        <v>1065</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>779</v>
+        <v>710</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1064</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>469</v>
+      <c r="B96" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -7228,22 +7256,22 @@
         <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -7251,22 +7279,22 @@
         <v>103</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -7274,22 +7302,22 @@
         <v>105</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,37 +7325,37 @@
         <v>135</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>780</v>
+        <v>711</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>782</v>
+        <v>713</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1133</v>
+        <v>1035</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="1" t="s">
-        <v>781</v>
+        <v>712</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>237</v>
+        <v>714</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="F103" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -7335,16 +7363,16 @@
         <v>136</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>790</v>
+        <v>721</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>791</v>
+        <v>722</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>792</v>
+        <v>723</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -7352,144 +7380,144 @@
         <v>137</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>787</v>
+        <v>718</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>784</v>
+        <v>715</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>789</v>
+        <v>720</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="G105" t="s">
         <v>195</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>490</v>
+      <c r="H105" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="1" t="s">
-        <v>786</v>
+        <v>717</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>785</v>
+        <v>716</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="H106" s="11"/>
+        <v>719</v>
+      </c>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>795</v>
+        <v>729</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1060</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>259</v>
+        <v>467</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1059</v>
       </c>
       <c r="G107" t="s">
         <v>196</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>495</v>
+      <c r="H107" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="1" t="s">
-        <v>794</v>
+        <v>725</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>798</v>
+        <v>728</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>796</v>
+        <v>726</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H108" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>801</v>
+        <v>731</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="G109" t="s">
         <v>163</v>
       </c>
-      <c r="H109" s="11"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="1" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H110" s="11"/>
+        <v>461</v>
+      </c>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>806</v>
+        <v>736</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>802</v>
+        <v>732</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G111" t="s">
         <v>197</v>
       </c>
-      <c r="H111" s="11"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="1" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -7498,16 +7526,16 @@
         <v>141</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>808</v>
+        <v>738</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>809</v>
+        <v>739</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -7515,31 +7543,31 @@
         <v>142</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>810</v>
+        <v>740</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>812</v>
+        <v>742</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>813</v>
+        <v>743</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="1" t="s">
-        <v>811</v>
+        <v>741</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -7547,25 +7575,25 @@
         <v>143</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>814</v>
+        <v>744</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>815</v>
+        <v>745</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="F117" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -7573,81 +7601,81 @@
         <v>144</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>821</v>
+        <v>751</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>816</v>
+        <v>746</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="G118" t="s">
         <v>198</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>484</v>
+      <c r="H118" s="10" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="1" t="s">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>817</v>
+        <v>747</v>
       </c>
       <c r="G119" t="s">
         <v>199</v>
       </c>
-      <c r="H119" s="11"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>824</v>
+        <v>754</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>825</v>
+        <v>755</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G120" t="s">
         <v>200</v>
       </c>
-      <c r="H120" s="11"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="1" t="s">
-        <v>826</v>
+        <v>756</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H121" s="11"/>
+        <v>753</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="F122" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -7656,16 +7684,16 @@
         <v>151</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>827</v>
+        <v>757</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>828</v>
+        <v>758</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7678,79 +7706,79 @@
         <v>147</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>830</v>
+        <v>763</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="G125" t="s">
         <v>201</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>496</v>
+      <c r="H125" s="10" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="1" t="s">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D126" s="7"/>
+        <v>762</v>
+      </c>
+      <c r="D126" s="6"/>
       <c r="G126" t="s">
         <v>203</v>
       </c>
-      <c r="H126" s="11"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>837</v>
+        <v>767</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>839</v>
+        <v>769</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>836</v>
+        <v>766</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>840</v>
+        <v>770</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G127" t="s">
         <v>202</v>
       </c>
-      <c r="H127" s="11"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="1" t="s">
-        <v>838</v>
+        <v>768</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>835</v>
+        <v>765</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="F129" s="5" t="s">
-        <v>317</v>
+      <c r="F129" s="1" t="s">
+        <v>1057</v>
       </c>
       <c r="H129" s="2"/>
     </row>
@@ -7759,7 +7787,7 @@
         <v>149</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>841</v>
+        <v>771</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7767,16 +7795,16 @@
         <v>150</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7784,68 +7812,68 @@
         <v>161</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>843</v>
+        <v>773</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>844</v>
+        <v>774</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>846</v>
+        <v>776</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="G132" t="s">
         <v>163</v>
       </c>
-      <c r="H132" s="12" t="s">
-        <v>847</v>
+      <c r="H132" s="9" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="1" t="s">
-        <v>842</v>
+        <v>772</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="H133" s="12"/>
+        <v>775</v>
+      </c>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>849</v>
+        <v>779</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>852</v>
+        <v>782</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>854</v>
+        <v>784</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>853</v>
+        <v>783</v>
       </c>
       <c r="G134" t="s">
         <v>204</v>
       </c>
-      <c r="H134" s="12"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="1" t="s">
-        <v>850</v>
+        <v>780</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>848</v>
+        <v>778</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -7854,16 +7882,16 @@
         <v>164</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>856</v>
+        <v>786</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>857</v>
+        <v>787</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>858</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7871,7 +7899,7 @@
         <v>166</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>859</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7879,10 +7907,10 @@
         <v>165</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>860</v>
+        <v>790</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7890,28 +7918,28 @@
         <v>167</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>863</v>
+        <v>793</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>865</v>
+        <v>795</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="1" t="s">
-        <v>861</v>
+        <v>791</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>864</v>
+        <v>794</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -7919,99 +7947,99 @@
         <v>168</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>866</v>
+        <v>796</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>867</v>
+        <v>797</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>870</v>
+        <v>799</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>871</v>
+        <v>800</v>
       </c>
       <c r="G141" t="s">
         <v>205</v>
       </c>
-      <c r="H141" s="11" t="s">
-        <v>523</v>
+      <c r="H141" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="H142" s="11"/>
+        <v>798</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>872</v>
+        <v>801</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>875</v>
+        <v>804</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>503</v>
+        <v>802</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1055</v>
       </c>
       <c r="G143" t="s">
         <v>206</v>
       </c>
-      <c r="H143" s="11"/>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="1" t="s">
-        <v>876</v>
+        <v>805</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="H144" s="11"/>
+        <v>803</v>
+      </c>
+      <c r="H144" s="10"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>878</v>
+        <v>807</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>880</v>
+        <v>809</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>881</v>
+        <v>810</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G145" t="s">
         <v>207</v>
       </c>
-      <c r="H145" s="11"/>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="1" t="s">
-        <v>879</v>
+        <v>808</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>877</v>
+        <v>806</v>
       </c>
       <c r="H146" s="2"/>
     </row>
@@ -8020,25 +8048,25 @@
         <v>171</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>886</v>
+        <v>815</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>885</v>
+        <v>814</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>884</v>
+        <v>813</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>887</v>
+        <v>816</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="1" t="s">
-        <v>883</v>
+        <v>812</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>882</v>
+        <v>811</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -8046,109 +8074,109 @@
         <v>172</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>891</v>
+        <v>820</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>889</v>
+        <v>818</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>890</v>
+        <v>819</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G149" t="s">
         <v>208</v>
       </c>
-      <c r="H149" s="12" t="s">
-        <v>520</v>
+      <c r="H149" s="9" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="1" t="s">
-        <v>888</v>
+        <v>817</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H150" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="F151" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H151" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>896</v>
+        <v>825</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>893</v>
+        <v>822</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>892</v>
+        <v>821</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G152" t="s">
         <v>209</v>
       </c>
-      <c r="H152" s="12"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="1" t="s">
-        <v>895</v>
+        <v>824</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="H153" s="12"/>
+        <v>823</v>
+      </c>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>902</v>
+        <v>831</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>897</v>
+        <v>826</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>900</v>
+        <v>829</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>899</v>
+        <v>828</v>
       </c>
       <c r="G154" t="s">
         <v>163</v>
       </c>
-      <c r="H154" s="12"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="1" t="s">
-        <v>898</v>
+        <v>827</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>901</v>
+        <v>830</v>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -8156,17 +8184,17 @@
       <c r="A156" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>903</v>
+      <c r="B156" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1053</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>905</v>
+        <v>832</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -8174,22 +8202,22 @@
         <v>176</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>910</v>
+        <v>837</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>908</v>
+        <v>835</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>907</v>
+        <v>834</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="1" t="s">
-        <v>909</v>
+        <v>836</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>906</v>
+        <v>833</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -8197,45 +8225,45 @@
         <v>177</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>912</v>
+        <v>839</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>911</v>
+        <v>838</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>915</v>
+        <v>842</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="1" t="s">
-        <v>913</v>
+        <v>840</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>914</v>
+        <v>841</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>920</v>
+      <c r="B161" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>916</v>
+        <v>843</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="1" t="s">
-        <v>918</v>
+        <v>844</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>919</v>
+        <v>845</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -8243,16 +8271,16 @@
         <v>179</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>925</v>
+        <v>849</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -8260,75 +8288,75 @@
         <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>922</v>
+        <v>847</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>921</v>
+        <v>846</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="G164" t="s">
         <v>210</v>
       </c>
-      <c r="H164" s="12" t="s">
-        <v>512</v>
+      <c r="H164" s="9" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" s="5" t="s">
-        <v>923</v>
+      <c r="B165" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="H165" s="12"/>
+        <v>848</v>
+      </c>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>928</v>
+        <v>851</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>507</v>
+        <v>852</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>1048</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G166" t="s">
         <v>211</v>
       </c>
-      <c r="H166" s="12"/>
+      <c r="H166" s="9"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="1" t="s">
-        <v>927</v>
+        <v>850</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>930</v>
+        <v>853</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H167" s="2"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="F168" s="1" t="s">
-        <v>931</v>
+        <v>854</v>
       </c>
       <c r="H168" s="2"/>
     </row>
@@ -8337,37 +8365,37 @@
         <v>182</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>933</v>
+        <v>855</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>935</v>
+        <v>856</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>936</v>
+        <v>857</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="B170" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>932</v>
+      <c r="B170" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1046</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="F171" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8375,157 +8403,157 @@
         <v>183</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>944</v>
+        <v>865</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>941</v>
+        <v>862</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>940</v>
+        <v>861</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G172" t="s">
         <v>214</v>
       </c>
-      <c r="H172" s="12" t="s">
-        <v>513</v>
+      <c r="H172" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="1" t="s">
-        <v>943</v>
+        <v>864</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>942</v>
+        <v>863</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H173" s="12"/>
+        <v>328</v>
+      </c>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>947</v>
+      <c r="B174" s="1" t="s">
+        <v>1045</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>937</v>
+        <v>858</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>945</v>
+        <v>866</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="G174" t="s">
         <v>212</v>
       </c>
-      <c r="H174" s="12"/>
+      <c r="H174" s="9"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="H175" s="12"/>
+        <v>867</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>951</v>
+        <v>869</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1043</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>953</v>
+        <v>871</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G176" t="s">
         <v>213</v>
       </c>
-      <c r="H176" s="12" t="s">
-        <v>515</v>
+      <c r="H176" s="9" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="1" t="s">
-        <v>949</v>
+        <v>868</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>952</v>
+        <v>870</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H177" s="12"/>
+        <v>275</v>
+      </c>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>939</v>
+        <v>860</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>516</v>
+        <v>872</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="G178" t="s">
         <v>215</v>
       </c>
-      <c r="H178" s="12"/>
+      <c r="H178" s="9"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="1" t="s">
-        <v>938</v>
+        <v>859</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D179" s="12"/>
+        <v>873</v>
+      </c>
+      <c r="D179" s="9"/>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>959</v>
+      <c r="B180" s="1" t="s">
+        <v>1042</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>958</v>
+        <v>876</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>960</v>
+        <v>877</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8533,16 +8561,16 @@
         <v>189</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>962</v>
+        <v>878</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1041</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>956</v>
+        <v>874</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8550,16 +8578,16 @@
         <v>190</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>963</v>
+        <v>879</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>957</v>
+        <v>875</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>964</v>
+        <v>880</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8567,309 +8595,312 @@
         <v>187</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>525</v>
+        <v>495</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="B193" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="C193" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="D193" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="E193" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="F193" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="F194" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="G194" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="H194" t="s">
-        <v>566</v>
-      </c>
-      <c r="I194" s="8" t="s">
-        <v>567</v>
+        <v>534</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H195" t="s">
-        <v>568</v>
-      </c>
-      <c r="I195" s="8" t="s">
-        <v>569</v>
+        <v>536</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="J195" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="K195" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="L195" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="M195" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>514</v>
+      </c>
+      <c r="B196" t="s">
+        <v>542</v>
+      </c>
+      <c r="C196" t="s">
+        <v>543</v>
+      </c>
+      <c r="D196" t="s">
+        <v>544</v>
+      </c>
+      <c r="E196" t="s">
+        <v>545</v>
+      </c>
+      <c r="F196" t="s">
         <v>546</v>
-      </c>
-      <c r="B196" t="s">
-        <v>574</v>
-      </c>
-      <c r="C196" t="s">
-        <v>575</v>
-      </c>
-      <c r="D196" t="s">
-        <v>576</v>
-      </c>
-      <c r="E196" t="s">
-        <v>577</v>
-      </c>
-      <c r="F196" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="F197" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="G197" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="H197" t="s">
-        <v>582</v>
-      </c>
-      <c r="I197" s="8" t="s">
-        <v>583</v>
+        <v>550</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
-        <v>584</v>
-      </c>
-      <c r="I198" s="8" t="s">
-        <v>585</v>
+        <v>552</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="J198" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="K198" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="L198" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="M198" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="B199" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="C199" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="D199" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="E199" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="F199" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="F200" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="G200" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="H200" t="s">
-        <v>597</v>
-      </c>
-      <c r="I200" s="8" t="s">
-        <v>598</v>
+        <v>565</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
-        <v>600</v>
-      </c>
-      <c r="I201" s="8" t="s">
-        <v>601</v>
+        <v>568</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>569</v>
       </c>
       <c r="J201" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="K201" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="L201" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="M201" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="B205" t="s">
-        <v>735</v>
+        <v>678</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E210" s="1" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I210" s="9" t="s">
-        <v>615</v>
+        <v>582</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H211" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I211" s="9" t="s">
-        <v>617</v>
+        <v>584</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="H172:H175"/>
-    <mergeCell ref="H176:H178"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="H149:H154"/>
-    <mergeCell ref="H132:H134"/>
-    <mergeCell ref="H141:H145"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H22:H24"/>
     <mergeCell ref="H50:H52"/>
     <mergeCell ref="H53:H55"/>
     <mergeCell ref="H58:H60"/>
@@ -8879,58 +8910,18 @@
     <mergeCell ref="H69:H71"/>
     <mergeCell ref="H72:H75"/>
     <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="H176:H178"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="H132:H134"/>
+    <mergeCell ref="H141:H145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA582F9-CB3B-4898-93EC-932384AAC95D}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8949,149 +8940,149 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>965</v>
+        <v>881</v>
       </c>
       <c r="C1" t="s">
-        <v>974</v>
+        <v>890</v>
       </c>
       <c r="D1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>966</v>
+        <v>882</v>
       </c>
       <c r="B2" t="s">
-        <v>979</v>
+        <v>895</v>
       </c>
       <c r="C2" t="s">
-        <v>988</v>
+        <v>904</v>
       </c>
       <c r="D2" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="B3" t="s">
-        <v>980</v>
+        <v>896</v>
       </c>
       <c r="C3" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
       <c r="D3" t="s">
-        <v>997</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="B4" t="s">
-        <v>981</v>
+        <v>897</v>
       </c>
       <c r="C4" t="s">
-        <v>990</v>
+        <v>906</v>
       </c>
       <c r="D4" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="B5" t="s">
-        <v>985</v>
+        <v>901</v>
       </c>
       <c r="C5" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="D5" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="B6" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="C6" t="s">
-        <v>992</v>
+        <v>908</v>
       </c>
       <c r="D6" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="B7" t="s">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="C7" t="s">
-        <v>993</v>
+        <v>909</v>
       </c>
       <c r="D7" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>972</v>
+        <v>888</v>
       </c>
       <c r="B8" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="C8" t="s">
-        <v>994</v>
+        <v>910</v>
       </c>
       <c r="D8" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>973</v>
+        <v>889</v>
       </c>
       <c r="B9" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="C9" t="s">
-        <v>995</v>
+        <v>911</v>
       </c>
       <c r="D9" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="B10" t="s">
-        <v>984</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>977</v>
+        <v>893</v>
       </c>
       <c r="B11" t="s">
-        <v>986</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>978</v>
+        <v>894</v>
       </c>
       <c r="B12" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>

--- a/Normal/Sword Art Online Hollow Realization/SAOrigin.xlsx
+++ b/Normal/Sword Art Online Hollow Realization/SAOrigin.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GameSiteZL\ZhenhaoLu.github.io\Normal\Sword Art Online Hollow Realization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B4348C-3BED-4FFB-8E0B-8050578B6DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5FECFD-9568-43B1-9DE2-95DC4FC67C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="观前须知" sheetId="7" r:id="rId1"/>
     <sheet name="宝石" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1 (4)" sheetId="9" r:id="rId3"/>
+    <sheet name="武器" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1209">
   <si>
     <t>浮尼亚斯浸湿丘陵</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4211,10 +4211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神谕之雾：STR+180，DEX+210，AGI+200，消耗SP-10%，踏步消耗SP减少-30%，移动速度UP+25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命运战士：VIT+209，DEX+195，AGI+166，背后CRT上升+40%，HP回复量UP+35%，以HP量攻击力UP+20%，移动速度UP+25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4247,10 +4243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命运扭曲者：VIT+204，DEX+173，AGI+170，HP回复量UP+35%，复活所需时间-10%，SP积蓄回复量+25%，移动速度UP+25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命运变化者：STR+180，DEX+205，AGI+180，CRT+20%，攻击力+20%，HP回复量UP+35%，剑技DMG调整UP+25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4283,10 +4275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命运预言者：STR+231，DEX+219，AGI+215，Weak目标攻击力+30%，防御力+20%，以防御值提升攻击力+10%，剑技DMG调整UP+25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反抗速记：STR+185，DEX+266，AGI+241，Weak目标攻击力+30%，盾重量-30%，Weak目标异常状态命中+50%，背后CRT上升+40%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4295,10 +4283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神谕之影：STR+192，DEX+245，AGI+244，CRT时攻击力+35%，移动速度UP+25%，JUST踏步SP回复+100，背后CRT上升+40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神谕之光：STR+220，DEX+212，AGI+224，重新施展时间-5%，SP积蓄回复量+25%，MaxSP+10%，SP治疗+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4359,10 +4343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静气护符：VIT+170，AGI+170，以HP量攻击力UP+20%，攻击力+200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱逐疼痛：DEX+235，AGI+236，以HP量攻击力UP+20%，损伤倍率调整+20%，攻击力+300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4375,18 +4355,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激昂安卡：STR+290，AGI+339，重新施展时间-5%，攻击力+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胜利护符：STR+164，AGI+203，重新施展时间-12%，攻击速度UP+8%，攻击力+200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奇异厄运链坠：STR+244，AGI+313，攻击速度UP+8%，攻击力+300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4796,6 +4768,46 @@
   </si>
   <si>
     <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐暗者：STR+133，DEX+107，AGI+147，剑技DMG调整UP+25%，攻击速度UP+12%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极乐资料/阐释者：VIT+145，DEX+114，AGI+102，SS消耗SP0-30%，CRT时攻击力+35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕之雾：STR+180，DEX+210，AGI+200，消耗SP-10%，踏步消耗SP减少-30%，JUST踏步SP回复+70，移动速度UP+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运扭曲者：VIT+208，DEX+187，AGI+179，HP回复量UP+35%，复活所需时间-10%，SP积蓄回复量+25%，移动速度UP+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运预言者：STR+232，DEX+229，AGI+215，Weak目标攻击力+30%，防御力+20%，以防御值提升攻击力+10%，剑技DMG调整UP+25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕之影：STR+192，DEX+245，AGI+246，CRT时攻击力+35%，移动速度UP+25%，JUST踏步SP回复+100，背后CRT上升+40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静气护符：VIT+170，AGI+170，以HP量攻击力UP+20%，反击+5%，攻击力+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激昂安卡：STR+290，AGI+339，重新施展时间-5%，SP治疗+10，攻击力+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异厄运链坠：STR+244，AGI+313，攻击速度UP+8%，防御力+20%，攻击力+300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4854,24 +4866,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5355,4679 +5368,4343 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE1FC10-0A26-420F-867A-C20E9ED141C5}">
-  <dimension ref="A1:O276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA4BB49-C5B3-4F9F-A182-66218B7B1690}">
+  <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B276" sqref="B276"/>
+      <selection pane="topRight" activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="100.77734375" customWidth="1"/>
-    <col min="5" max="5" width="102.33203125" customWidth="1"/>
-    <col min="6" max="6" width="103.6640625" customWidth="1"/>
-    <col min="7" max="7" width="107.77734375" customWidth="1"/>
-    <col min="8" max="8" width="100.77734375" customWidth="1"/>
-    <col min="9" max="9" width="100.77734375" style="5"/>
-    <col min="13" max="13" width="73.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="100.77734375" style="1"/>
+    <col min="5" max="5" width="102.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="103.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="107.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="100.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="100.77734375" style="3"/>
+    <col min="10" max="12" width="100.77734375" style="1"/>
+    <col min="13" max="13" width="73.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="100.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="M2" t="s">
+      <c r="H2" s="2"/>
+      <c r="M2" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="M12" t="s">
+      <c r="H12" s="2"/>
+      <c r="M12" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="M17" t="s">
+      <c r="H17" s="4"/>
+      <c r="M17" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="M18" t="s">
+      <c r="H18" s="4"/>
+      <c r="M18" s="1" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="M20" t="s">
+      <c r="H20" s="2"/>
+      <c r="M20" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="M26" t="s">
+      <c r="H26" s="2"/>
+      <c r="M26" s="1" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="M27" t="s">
+      <c r="H27" s="2"/>
+      <c r="M27" s="1" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="5" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="5" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="5" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="5" t="s">
+      <c r="H48" s="2"/>
+      <c r="I48" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="5" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="5" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <v>6</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="5" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <v>6</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="K67" t="s">
+      <c r="H67" s="2"/>
+      <c r="K67" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <v>6</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="G69" t="s">
+      <c r="A69" s="6"/>
+      <c r="G69" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="5" t="s">
+      <c r="H71" s="2"/>
+      <c r="I71" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="1">
         <v>6</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="5" t="s">
+      <c r="H73" s="2"/>
+      <c r="I73" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="7"/>
-      <c r="I74" s="5" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="1">
         <v>6</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="N75" t="s">
+      <c r="H75" s="2"/>
+      <c r="N75" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="F79" t="s">
+      <c r="A79" s="6"/>
+      <c r="F79" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="F80" t="s">
+      <c r="A80" s="6"/>
+      <c r="F80" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85" t="s">
+      <c r="H85" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87" t="s">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="F87" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88" t="s">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="F88" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91" t="s">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="F91" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92" t="s">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="F92" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94" t="s">
+      <c r="H94" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G101"/>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" t="s">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="G102"/>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103" t="s">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="F103" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G103"/>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104" t="s">
+      <c r="H104" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F105"/>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E108"/>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G108"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F109"/>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" t="s">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" t="s">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G112"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113" t="s">
+      <c r="H113" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G114"/>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" t="s">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G115"/>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G116"/>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117" t="s">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="F117" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G117"/>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F118"/>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" t="s">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E121"/>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="G121"/>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122" t="s">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="F122" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G122"/>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123" t="s">
+      <c r="H123" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F125"/>
-      <c r="G125" t="s">
+      <c r="G125" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126" t="s">
+      <c r="D126" s="8"/>
+      <c r="G126" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" t="s">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G128"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129" t="s">
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="F129" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="G129"/>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F132"/>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H132" s="6" t="s">
+      <c r="H132" s="4" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" t="s">
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="B135" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G135"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138" t="s">
+      <c r="H138" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G139"/>
-      <c r="H139"/>
-    </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" t="s">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="1:8" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="F143"/>
-      <c r="G143" t="s">
+      <c r="G143" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" t="s">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" t="s">
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147" t="s">
+      <c r="H147" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-    </row>
-    <row r="149" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H149" s="6" t="s">
+      <c r="H149" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G150"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151" t="s">
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="F151" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G151"/>
-      <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" t="s">
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="F154"/>
-      <c r="G154" t="s">
+      <c r="G154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" t="s">
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156" t="s">
+      <c r="H156" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-    </row>
-    <row r="158" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" t="s">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-    </row>
-    <row r="159" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-    </row>
-    <row r="160" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" t="s">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-    </row>
-    <row r="161" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-    </row>
-    <row r="162" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" t="s">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-    </row>
-    <row r="163" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="H163"/>
-    </row>
-    <row r="164" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F164"/>
-      <c r="G164" t="s">
+      <c r="G164" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H164" s="6" t="s">
+      <c r="H164" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="B165" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" t="s">
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+      <c r="B167" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G167"/>
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168" t="s">
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="F168" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G168"/>
-      <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G169"/>
-      <c r="H169"/>
-    </row>
-    <row r="170" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" t="s">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="B170" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170" t="s">
+      <c r="F170" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G170"/>
-      <c r="H170"/>
-    </row>
-    <row r="171" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171"/>
-      <c r="F171" t="s">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+      <c r="F171" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G171"/>
-      <c r="H171"/>
-    </row>
-    <row r="172" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H172" s="6" t="s">
+      <c r="H172" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="6"/>
+      <c r="B173" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173" t="s">
+      <c r="F173" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G173"/>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F174"/>
-      <c r="G174" t="s">
+      <c r="G174" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" t="s">
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+      <c r="B175" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H176" s="6" t="s">
+      <c r="H176" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G177"/>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D178" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F178"/>
-      <c r="G178" t="s">
+      <c r="G178" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" t="s">
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="6"/>
+      <c r="B179" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="D179" s="6"/>
-      <c r="E179"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="D179" s="4"/>
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180" t="s">
+      <c r="H180" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181" t="s">
+      <c r="H181" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182" t="s">
+      <c r="H182" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="H183"/>
-    </row>
-    <row r="186" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B186" t="s">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
-    </row>
-    <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187"/>
-      <c r="B187" t="s">
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="H187"/>
-    </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188"/>
-      <c r="B188" t="s">
+      <c r="B278" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-    </row>
-    <row r="189" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189"/>
-      <c r="B189" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
-    </row>
-    <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190"/>
-      <c r="B190" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
-    </row>
-    <row r="191" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191"/>
-      <c r="B191" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
-    </row>
-    <row r="192" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192"/>
-      <c r="B192" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C220" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C227" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
-        <v>1059</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="H176:H178"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="H132:H134"/>
+    <mergeCell ref="H141:H145"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H105:H106"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="H31:H33"/>
     <mergeCell ref="H34:H36"/>
     <mergeCell ref="H41:H43"/>
     <mergeCell ref="H47:H49"/>
     <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="H172:H175"/>
-    <mergeCell ref="H176:H178"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="H132:H134"/>
-    <mergeCell ref="H141:H145"/>
-    <mergeCell ref="H149:H154"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
